--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171540.806886272</v>
+        <v>3171154.096484471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644331</v>
+        <v>247834.3978644347</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736548</v>
+        <v>504792.0292736547</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>327.4645899416576</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>50.09438810731616</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.893369583876919</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>69.48804824826966</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>56.78874461372734</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.3870690546049</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>81.14677969311366</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>134.7230092650843</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -984,7 +984,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>186.9131327955678</v>
+        <v>53.56627272594156</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.2101393986432</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>58.96816892577746</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.46237513862825</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>302.6597436021329</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>55.27952187619046</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>110.0127259007624</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>142.2725166791567</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>268.6107013963115</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
         <v>255.6655596168399</v>
@@ -1379,7 +1379,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>298.5127811721451</v>
@@ -1421,10 +1421,10 @@
         <v>71.92652010774083</v>
       </c>
       <c r="T11" t="n">
-        <v>50.72050402767898</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>113.3335550998544</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4527928920588</v>
+        <v>39.75433043521871</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>53.80038563761974</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326030983</v>
       </c>
       <c r="I13" t="n">
         <v>29.33084844513951</v>
@@ -1610,7 +1610,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>277.4076971867455</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.68191827810313</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>205.4797739680074</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
         <v>264.7796735655128</v>
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>39.75433043521916</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1743,7 +1743,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>138.4247817844199</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1844,7 +1844,7 @@
         <v>219.099279429967</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876488</v>
+        <v>207.1105963876487</v>
       </c>
       <c r="D17" t="n">
         <v>198.0919004321767</v>
@@ -1856,13 +1856,13 @@
         <v>239.0058540900594</v>
       </c>
       <c r="G17" t="n">
-        <v>240.939121987482</v>
+        <v>240.9391219874819</v>
       </c>
       <c r="H17" t="n">
         <v>158.4892369657919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211042002757</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307766</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342702</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027398</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V17" t="n">
         <v>162.6056566701461</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9057561481031</v>
+        <v>187.905756148103</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808497</v>
+        <v>207.2060143808496</v>
       </c>
       <c r="Y17" t="n">
         <v>218.6026121770484</v>
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>117.4618285548002</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>98.94075665122327</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.7159903046641</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747739</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960603</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U19" t="n">
         <v>113.3145124229192</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428969</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W19" t="n">
-        <v>112.291012774903</v>
+        <v>112.2910127749029</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070607</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677376</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>219.099279429967</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876488</v>
+        <v>207.1105963876487</v>
       </c>
       <c r="D20" t="n">
         <v>198.0919004321767</v>
@@ -2093,13 +2093,13 @@
         <v>239.0058540900594</v>
       </c>
       <c r="G20" t="n">
-        <v>240.939121987482</v>
+        <v>240.9391219874819</v>
       </c>
       <c r="H20" t="n">
         <v>158.4892369657919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211042002757</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307676</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342702</v>
+        <v>51.11153211342621</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027398</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V20" t="n">
         <v>162.6056566701461</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9057561481031</v>
+        <v>187.905756148103</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808497</v>
+        <v>207.2060143808496</v>
       </c>
       <c r="Y20" t="n">
         <v>218.6026121770484</v>
@@ -2169,7 +2169,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>45.65997552789477</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7710337916618</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.7159903046641</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747739</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960603</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U22" t="n">
         <v>113.3145124229192</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428969</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W22" t="n">
-        <v>112.291012774903</v>
+        <v>112.2910127749029</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070607</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677376</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>219.099279429967</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876488</v>
+        <v>207.1105963876487</v>
       </c>
       <c r="D23" t="n">
         <v>198.0919004321767</v>
@@ -2330,13 +2330,13 @@
         <v>239.0058540900594</v>
       </c>
       <c r="G23" t="n">
-        <v>240.939121987482</v>
+        <v>240.9391219874819</v>
       </c>
       <c r="H23" t="n">
         <v>158.4892369657919</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211042002757</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307766</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342702</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027398</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V23" t="n">
         <v>162.6056566701461</v>
       </c>
       <c r="W23" t="n">
-        <v>187.9057561481031</v>
+        <v>187.905756148103</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808497</v>
+        <v>207.2060143808496</v>
       </c>
       <c r="Y23" t="n">
         <v>218.6026121770484</v>
@@ -2397,7 +2397,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>72.39975148972523</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>122.7710337916618</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.7159903046641</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747739</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960603</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U25" t="n">
         <v>113.3145124229192</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428969</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W25" t="n">
-        <v>112.291012774903</v>
+        <v>112.2910127749029</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070607</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677376</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>202.2745970076973</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2618,7 +2618,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>223.281976005488</v>
       </c>
       <c r="Y26" t="n">
         <v>276.1762713617116</v>
@@ -2646,7 +2646,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>112.8757236914447</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>194.4717732505223</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508323</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2852,13 +2852,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
-        <v>256.5184163592006</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541863</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.4524160856741</v>
+        <v>248.4524160856739</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433558</v>
+        <v>236.4637330433556</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878838</v>
+        <v>227.4450370878836</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577893</v>
+        <v>249.1871746577891</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457665</v>
+        <v>268.3589907457663</v>
       </c>
       <c r="G32" t="n">
-        <v>270.292258643189</v>
+        <v>270.2922586431888</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214989</v>
+        <v>187.8423736214988</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612706</v>
+        <v>29.43833876612689</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878469</v>
+        <v>43.70599757878452</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913405</v>
+        <v>80.46466876913388</v>
       </c>
       <c r="U32" t="n">
-        <v>110.685794885981</v>
+        <v>110.6857948859808</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258532</v>
+        <v>191.958793325853</v>
       </c>
       <c r="W32" t="n">
-        <v>217.2588928038101</v>
+        <v>217.2588928038099</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365567</v>
+        <v>236.5591510365565</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327555</v>
+        <v>247.9557488327553</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037114</v>
+        <v>40.06912696037097</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577162</v>
+        <v>26.26912180577145</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203350008</v>
+        <v>9.890486203349838</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129457</v>
+        <v>8.838236059129287</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315766</v>
+        <v>9.305160387315595</v>
       </c>
       <c r="G34" t="n">
-        <v>25.5798631086636</v>
+        <v>25.57986310866343</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135402</v>
+        <v>16.12823073135385</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183371</v>
+        <v>1.1103259161832</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600681</v>
+        <v>6.37587553460051</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318442</v>
+        <v>69.92197693318425</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531306</v>
+        <v>89.19647561531289</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786262</v>
+        <v>142.6676490786261</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599967</v>
+        <v>116.4772633599966</v>
       </c>
       <c r="W34" t="n">
-        <v>141.64414943061</v>
+        <v>141.6441494306098</v>
       </c>
       <c r="X34" t="n">
-        <v>87.2892514264131</v>
+        <v>87.28925142641293</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248079</v>
+        <v>78.16411918248062</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679445</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3636,7 +3636,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3755,10 +3755,10 @@
         <v>251.5836253810632</v>
       </c>
       <c r="H41" t="n">
-        <v>144.3436182188875</v>
+        <v>169.1337403593731</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400129</v>
+        <v>10.72970550400126</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665892</v>
+        <v>24.99736431665889</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.75603550700825</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385524</v>
+        <v>91.97716162385521</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637274</v>
+        <v>86.70400241623362</v>
       </c>
       <c r="W41" t="n">
         <v>198.5502595416843</v>
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824536</v>
+        <v>21.36049369824534</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543645846</v>
+        <v>7.560488543645818</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.87122984653783</v>
+        <v>6.871229846537801</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105865</v>
+        <v>51.21334367105862</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318729</v>
+        <v>70.48784235318726</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165005</v>
+        <v>123.9590158165004</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787095</v>
+        <v>97.76863009787093</v>
       </c>
       <c r="W43" t="n">
         <v>122.9355161684842</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428733</v>
+        <v>68.5806181642873</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035502</v>
+        <v>59.45548592035499</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>169.1337403593731</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.72970550400126</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.99736431665889</v>
       </c>
       <c r="T44" t="n">
-        <v>10.93694768017525</v>
+        <v>61.75603550700825</v>
       </c>
       <c r="U44" t="n">
         <v>91.97716162385521</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637274</v>
+        <v>86.70400241623452</v>
       </c>
       <c r="W44" t="n">
         <v>198.5502595416843</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1768.487334610714</v>
+        <v>1193.678693109415</v>
       </c>
       <c r="C2" t="n">
-        <v>1768.487334610714</v>
+        <v>1193.678693109415</v>
       </c>
       <c r="D2" t="n">
-        <v>1437.715021538333</v>
+        <v>1193.678693109415</v>
       </c>
       <c r="E2" t="n">
-        <v>1042.92930164444</v>
+        <v>798.8929732155223</v>
       </c>
       <c r="F2" t="n">
-        <v>628.77811095461</v>
+        <v>788.7821865660967</v>
       </c>
       <c r="G2" t="n">
-        <v>212.6741244087981</v>
+        <v>372.6782000202847</v>
       </c>
       <c r="H2" t="n">
-        <v>212.6741244087981</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
@@ -4334,7 +4334,7 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>699.8812150201288</v>
+        <v>699.8812150201287</v>
       </c>
       <c r="M2" t="n">
         <v>1093.120381273217</v>
@@ -4343,37 +4343,37 @@
         <v>1471.451739960932</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737113</v>
+        <v>1670.257130737111</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193164</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="R2" t="n">
-        <v>1992.846280879703</v>
+        <v>1942.245888852109</v>
       </c>
       <c r="S2" t="n">
-        <v>1992.846280879703</v>
+        <v>1755.016913482463</v>
       </c>
       <c r="T2" t="n">
-        <v>1768.487334610714</v>
+        <v>1530.657967213474</v>
       </c>
       <c r="U2" t="n">
-        <v>1768.487334610714</v>
+        <v>1530.657967213474</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.487334610714</v>
+        <v>1193.678693109415</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.487334610714</v>
+        <v>1193.678693109415</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.487334610714</v>
+        <v>1193.678693109415</v>
       </c>
       <c r="Y2" t="n">
-        <v>1768.487334610714</v>
+        <v>1193.678693109415</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>690.5033286896207</v>
+        <v>754.7822399057677</v>
       </c>
       <c r="C3" t="n">
-        <v>528.7996559305755</v>
+        <v>593.0785671467224</v>
       </c>
       <c r="D3" t="n">
-        <v>389.9610189207875</v>
+        <v>454.2399301369345</v>
       </c>
       <c r="E3" t="n">
-        <v>242.9330089776587</v>
+        <v>307.2119201938057</v>
       </c>
       <c r="F3" t="n">
-        <v>108.2392109275331</v>
+        <v>172.5181221436801</v>
       </c>
       <c r="G3" t="n">
-        <v>108.2392109275331</v>
+        <v>43.78962216696465</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2392109275331</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J3" t="n">
         <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>329.6016247108889</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="L3" t="n">
-        <v>329.6016247108889</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="M3" t="n">
-        <v>647.5493265165342</v>
+        <v>814.6349782211153</v>
       </c>
       <c r="N3" t="n">
-        <v>1140.778781034261</v>
+        <v>1307.864432738841</v>
       </c>
       <c r="O3" t="n">
-        <v>1532.978731818411</v>
+        <v>1700.064383522992</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.074651094109</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974649</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987389</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="T3" t="n">
-        <v>1780.262524987389</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="U3" t="n">
-        <v>1710.072577261864</v>
+        <v>1774.351488478011</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.676954710198</v>
+        <v>1545.955865926345</v>
       </c>
       <c r="W3" t="n">
-        <v>1240.361085943508</v>
+        <v>1304.639997159655</v>
       </c>
       <c r="X3" t="n">
-        <v>1042.444097821303</v>
+        <v>1106.72300903745</v>
       </c>
       <c r="Y3" t="n">
-        <v>849.9227714708816</v>
+        <v>914.2016826870287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.2064082672141</v>
+        <v>514.5538025668322</v>
       </c>
       <c r="C4" t="n">
-        <v>358.2064082672141</v>
+        <v>344.9378330285125</v>
       </c>
       <c r="D4" t="n">
-        <v>358.2064082672141</v>
+        <v>191.8659398562752</v>
       </c>
       <c r="E4" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="F4" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="G4" t="n">
-        <v>199.2295708383203</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="H4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223748</v>
+        <v>73.46111336223743</v>
       </c>
       <c r="L4" t="n">
-        <v>174.068192762497</v>
+        <v>174.0681927624969</v>
       </c>
       <c r="M4" t="n">
         <v>292.0616988900987</v>
@@ -4501,7 +4501,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9476871353888</v>
+        <v>508.9476871353887</v>
       </c>
       <c r="P4" t="n">
         <v>571.9161708635265</v>
@@ -4513,25 +4513,25 @@
         <v>571.9161708635265</v>
       </c>
       <c r="S4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="T4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="U4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="V4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="W4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="X4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="Y4" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1400.981670489638</v>
+        <v>898.755462346855</v>
       </c>
       <c r="C5" t="n">
-        <v>1400.981670489638</v>
+        <v>516.8217036796623</v>
       </c>
       <c r="D5" t="n">
-        <v>1400.981670489638</v>
+        <v>143.9977389068858</v>
       </c>
       <c r="E5" t="n">
-        <v>1006.195950595745</v>
+        <v>62.0312947724276</v>
       </c>
       <c r="F5" t="n">
-        <v>592.0447599059155</v>
+        <v>51.92050812300199</v>
       </c>
       <c r="G5" t="n">
-        <v>175.9407733601035</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J5" t="n">
         <v>111.8554698903997</v>
@@ -4571,46 +4571,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>593.6820213234753</v>
+        <v>699.8812150201287</v>
       </c>
       <c r="M5" t="n">
-        <v>986.9211875765632</v>
+        <v>986.9211875765614</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264279</v>
+        <v>1365.252546264277</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.257130737113</v>
+        <v>1670.257130737111</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193164</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="R5" t="n">
-        <v>1992.846280879703</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="S5" t="n">
-        <v>1992.846280879703</v>
+        <v>1714.979019005908</v>
       </c>
       <c r="T5" t="n">
-        <v>1992.846280879703</v>
+        <v>1490.62007273692</v>
       </c>
       <c r="U5" t="n">
-        <v>1737.960944593697</v>
+        <v>1235.734736450914</v>
       </c>
       <c r="V5" t="n">
-        <v>1400.981670489638</v>
+        <v>898.755462346855</v>
       </c>
       <c r="W5" t="n">
-        <v>1400.981670489638</v>
+        <v>898.755462346855</v>
       </c>
       <c r="X5" t="n">
-        <v>1400.981670489638</v>
+        <v>898.755462346855</v>
       </c>
       <c r="Y5" t="n">
-        <v>1400.981670489638</v>
+        <v>898.755462346855</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784.4758880695124</v>
+        <v>919.1696861196382</v>
       </c>
       <c r="C6" t="n">
-        <v>622.7722153104671</v>
+        <v>757.4660133605929</v>
       </c>
       <c r="D6" t="n">
-        <v>483.9335783006792</v>
+        <v>618.627376350805</v>
       </c>
       <c r="E6" t="n">
-        <v>336.9055683575505</v>
+        <v>471.5993664076761</v>
       </c>
       <c r="F6" t="n">
         <v>336.9055683575505</v>
@@ -4638,58 +4638,58 @@
         <v>208.177068380835</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2392109275331</v>
+        <v>108.239210927533</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J6" t="n">
-        <v>39.85692561759407</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>269.3474781777827</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="L6" t="n">
-        <v>635.1693233478984</v>
+        <v>464.6118922820036</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.202676858125</v>
+        <v>949.6452457922301</v>
       </c>
       <c r="N6" t="n">
-        <v>1442.874700309958</v>
+        <v>1442.874700309956</v>
       </c>
       <c r="O6" t="n">
-        <v>1835.074651094109</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.074651094109</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="T6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="U6" t="n">
-        <v>1804.045136641756</v>
+        <v>1938.738934691881</v>
       </c>
       <c r="V6" t="n">
-        <v>1575.64951409009</v>
+        <v>1710.343312140215</v>
       </c>
       <c r="W6" t="n">
-        <v>1334.3336453234</v>
+        <v>1469.027443373526</v>
       </c>
       <c r="X6" t="n">
-        <v>1136.416657201194</v>
+        <v>1271.11045525132</v>
       </c>
       <c r="Y6" t="n">
-        <v>943.8953308507732</v>
+        <v>1078.589128900899</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>192.337580591817</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="C7" t="n">
-        <v>192.337580591817</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="D7" t="n">
-        <v>192.337580591817</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="E7" t="n">
-        <v>192.337580591817</v>
+        <v>512.3523638677917</v>
       </c>
       <c r="F7" t="n">
-        <v>39.85692561759407</v>
+        <v>512.3523638677917</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759407</v>
+        <v>343.4326152356417</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759407</v>
+        <v>184.0599700149155</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223748</v>
+        <v>73.46111336223743</v>
       </c>
       <c r="L7" t="n">
-        <v>174.068192762497</v>
+        <v>174.0681927624969</v>
       </c>
       <c r="M7" t="n">
         <v>292.0616988900987</v>
@@ -4738,7 +4738,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O7" t="n">
-        <v>508.9476871353888</v>
+        <v>508.9476871353887</v>
       </c>
       <c r="P7" t="n">
         <v>571.9161708635265</v>
@@ -4750,25 +4750,25 @@
         <v>571.9161708635265</v>
       </c>
       <c r="S7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="T7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="U7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="V7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="W7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="X7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.1323839232255</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="C8" t="n">
-        <v>64.19862525603281</v>
+        <v>1127.414436002704</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>754.5904712299275</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>359.8047513360344</v>
       </c>
       <c r="F8" t="n">
         <v>54.08783860660719</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>1673.595244451756</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W8" t="n">
-        <v>1311.060314309357</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="X8" t="n">
-        <v>929.0301738308503</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="Y8" t="n">
-        <v>535.4883184066883</v>
+        <v>1509.348194669897</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>718.2609332431787</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>556.5572604841334</v>
       </c>
       <c r="D9" t="n">
-        <v>300.1762316006536</v>
+        <v>417.7186234743454</v>
       </c>
       <c r="E9" t="n">
-        <v>153.1482216575249</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119923</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
         <v>42.02425610119923</v>
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M9" t="n">
-        <v>1039.975578367094</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.241224490216</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O9" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>430.3738885399027</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4996,16 +4996,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>313.3481969055543</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1465.641114123936</v>
+        <v>1433.423682101299</v>
       </c>
       <c r="C11" t="n">
-        <v>1465.641114123936</v>
+        <v>1166.065848189873</v>
       </c>
       <c r="D11" t="n">
-        <v>1207.393074106926</v>
+        <v>907.8178081728629</v>
       </c>
       <c r="E11" t="n">
-        <v>927.1832789687992</v>
+        <v>627.6080130347359</v>
       </c>
       <c r="F11" t="n">
-        <v>627.608013034736</v>
+        <v>627.6080130347359</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0799512446903</v>
+        <v>326.0799512446902</v>
       </c>
       <c r="H11" t="n">
         <v>107.834601597766</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J11" t="n">
         <v>233.8877356882608</v>
       </c>
       <c r="K11" t="n">
-        <v>474.0281077330435</v>
+        <v>586.3239715861703</v>
       </c>
       <c r="L11" t="n">
-        <v>832.4491116035294</v>
+        <v>1046.505208524243</v>
       </c>
       <c r="M11" t="n">
-        <v>1225.688277856617</v>
+        <v>1439.744374777331</v>
       </c>
       <c r="N11" t="n">
-        <v>1604.019636544333</v>
+        <v>1818.075733465047</v>
       </c>
       <c r="O11" t="n">
-        <v>1909.024221017167</v>
+        <v>2157.077227973833</v>
       </c>
       <c r="P11" t="n">
-        <v>2249.476981326347</v>
+        <v>2385.234124429886</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R11" t="n">
         <v>2479.666378116423</v>
@@ -5069,22 +5069,22 @@
         <v>2407.013327502544</v>
       </c>
       <c r="T11" t="n">
-        <v>2355.780495151353</v>
+        <v>2297.230305989321</v>
       </c>
       <c r="U11" t="n">
-        <v>2215.471083621113</v>
+        <v>2182.75196750462</v>
       </c>
       <c r="V11" t="n">
-        <v>1993.067734272821</v>
+        <v>1960.348618156327</v>
       </c>
       <c r="W11" t="n">
-        <v>1745.108728886189</v>
+        <v>1712.389612769695</v>
       </c>
       <c r="X11" t="n">
-        <v>1745.108728886189</v>
+        <v>1712.389612769695</v>
       </c>
       <c r="Y11" t="n">
-        <v>1745.108728886189</v>
+        <v>1433.423682101299</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840.3334774161613</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C12" t="n">
-        <v>678.629804657116</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D12" t="n">
-        <v>539.7911676473281</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E12" t="n">
-        <v>392.7631577041993</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F12" t="n">
-        <v>258.0693596540737</v>
+        <v>258.0693596540732</v>
       </c>
       <c r="G12" t="n">
-        <v>149.5311850156304</v>
+        <v>217.9134703255694</v>
       </c>
       <c r="H12" t="n">
-        <v>49.59332756232847</v>
+        <v>117.9756128722675</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5130,10 +5130,10 @@
         <v>1190.193225335966</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270981</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055132</v>
       </c>
       <c r="P12" t="n">
         <v>2321.894748330829</v>
@@ -5148,22 +5148,22 @@
         <v>2267.082622224109</v>
       </c>
       <c r="T12" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U12" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V12" t="n">
-        <v>1631.507103436739</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W12" t="n">
-        <v>1390.191234670049</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X12" t="n">
         <v>1192.274246547843</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.7529201974222</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456222</v>
+        <v>347.2348244456227</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630689</v>
+        <v>292.1947796630694</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465981</v>
+        <v>253.6988112465986</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636833</v>
+        <v>216.2657217636839</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452269</v>
+        <v>178.3609915452274</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688434</v>
+        <v>124.0171676688437</v>
       </c>
       <c r="H13" t="n">
         <v>79.22044720388354</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J13" t="n">
-        <v>103.027091877486</v>
+        <v>103.0270918774858</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752555</v>
+        <v>248.9271434752559</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286416</v>
+        <v>461.8300867286422</v>
       </c>
       <c r="M13" t="n">
-        <v>692.11945670937</v>
+        <v>692.1194567093705</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120971</v>
+        <v>922.8376623120976</v>
       </c>
       <c r="O13" t="n">
-        <v>1133.597172660913</v>
+        <v>1133.597172660914</v>
       </c>
       <c r="P13" t="n">
         <v>1308.861520242178</v>
       </c>
       <c r="Q13" t="n">
-        <v>1383.386935841785</v>
+        <v>1383.386935841786</v>
       </c>
       <c r="R13" t="n">
         <v>1348.44107921193</v>
@@ -5227,22 +5227,22 @@
         <v>1249.307241371384</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.704212942829</v>
+        <v>1130.70421294283</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876956</v>
+        <v>958.0898981876958</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018845</v>
+        <v>811.9305185018848</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750499</v>
+        <v>640.3500417750504</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261922</v>
+        <v>523.6735024261926</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742356</v>
+        <v>416.2142683742361</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1471.342544835933</v>
+        <v>1198.26428433599</v>
       </c>
       <c r="C14" t="n">
-        <v>1203.984710924506</v>
+        <v>930.9064504245641</v>
       </c>
       <c r="D14" t="n">
-        <v>945.7366709074963</v>
+        <v>930.9064504245641</v>
       </c>
       <c r="E14" t="n">
-        <v>665.5268757693696</v>
+        <v>650.6966552864374</v>
       </c>
       <c r="F14" t="n">
-        <v>365.9516098353064</v>
+        <v>351.1213893523741</v>
       </c>
       <c r="G14" t="n">
-        <v>64.42354804526092</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H14" t="n">
-        <v>64.42354804526092</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J14" t="n">
         <v>233.8877356882608</v>
@@ -5282,46 +5282,46 @@
         <v>586.3239715861703</v>
       </c>
       <c r="L14" t="n">
-        <v>944.7449754566562</v>
+        <v>934.2093446711165</v>
       </c>
       <c r="M14" t="n">
-        <v>1337.984141709744</v>
+        <v>1327.448510924204</v>
       </c>
       <c r="N14" t="n">
-        <v>1716.31550039746</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.320084870294</v>
+        <v>2010.784454084754</v>
       </c>
       <c r="P14" t="n">
-        <v>2249.476981326347</v>
+        <v>2351.237214393934</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866011</v>
+        <v>2456.20509886601</v>
       </c>
       <c r="R14" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="S14" t="n">
-        <v>2407.013327502544</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="T14" t="n">
-        <v>2297.230305989321</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="U14" t="n">
-        <v>2297.230305989321</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="V14" t="n">
-        <v>2297.230305989321</v>
+        <v>2272.111050876012</v>
       </c>
       <c r="W14" t="n">
-        <v>2297.230305989321</v>
+        <v>2024.152045489379</v>
       </c>
       <c r="X14" t="n">
-        <v>2029.776090266581</v>
+        <v>1756.697829766639</v>
       </c>
       <c r="Y14" t="n">
-        <v>1750.810159598185</v>
+        <v>1477.731899098243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.3334774161613</v>
+        <v>928.9060880643725</v>
       </c>
       <c r="C15" t="n">
-        <v>678.629804657116</v>
+        <v>767.2024153053272</v>
       </c>
       <c r="D15" t="n">
-        <v>539.7911676473281</v>
+        <v>628.3637782955393</v>
       </c>
       <c r="E15" t="n">
-        <v>392.7631577041993</v>
+        <v>481.3357683524106</v>
       </c>
       <c r="F15" t="n">
-        <v>258.0693596540737</v>
+        <v>346.6419703022849</v>
       </c>
       <c r="G15" t="n">
         <v>217.9134703255694</v>
@@ -5352,7 +5352,7 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J15" t="n">
         <v>109.8474740954346</v>
@@ -5385,22 +5385,22 @@
         <v>2267.082622224109</v>
       </c>
       <c r="T15" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U15" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V15" t="n">
-        <v>1631.507103436739</v>
+        <v>1720.07971408495</v>
       </c>
       <c r="W15" t="n">
-        <v>1390.191234670049</v>
+        <v>1478.76384531826</v>
       </c>
       <c r="X15" t="n">
-        <v>1192.274246547843</v>
+        <v>1280.846857196055</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.7529201974222</v>
+        <v>1088.325530845633</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456224</v>
+        <v>347.2348244456219</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630692</v>
+        <v>292.1947796630685</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465983</v>
+        <v>253.6988112465975</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636836</v>
+        <v>216.265721763683</v>
       </c>
       <c r="F16" t="n">
         <v>178.360991545227</v>
@@ -5428,58 +5428,58 @@
         <v>124.0171676688434</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388362</v>
+        <v>79.22044720388359</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J16" t="n">
         <v>103.027091877486</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752561</v>
+        <v>248.9271434752555</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8300867286424</v>
+        <v>461.8300867286415</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093708</v>
+        <v>692.1194567093697</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120978</v>
+        <v>922.8376623120968</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.597172660914</v>
+        <v>1133.597172660913</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.861520242179</v>
+        <v>1308.861520242177</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.386935841786</v>
+        <v>1383.386935841785</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.44107921193</v>
+        <v>1348.441079211929</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.307241371384</v>
+        <v>1249.307241371383</v>
       </c>
       <c r="T16" t="n">
         <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876954</v>
+        <v>958.089898187695</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018844</v>
+        <v>811.930518501884</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750499</v>
+        <v>640.3500417750495</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261922</v>
+        <v>523.6735024261916</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2142683742358</v>
+        <v>416.2142683742352</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1116.709846338098</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187279</v>
+        <v>916.6170176187275</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782408</v>
+        <v>694.5624337782403</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418171</v>
+        <v>453.1423791418167</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494111</v>
+        <v>209.7695286494107</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012648</v>
+        <v>49.67939030012644</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J17" t="n">
-        <v>290.8856582810773</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K17" t="n">
-        <v>700.3198167718033</v>
+        <v>361.7322438799169</v>
       </c>
       <c r="L17" t="n">
-        <v>1048.205189856749</v>
+        <v>830.7491302710229</v>
       </c>
       <c r="M17" t="n">
-        <v>1441.444356109837</v>
+        <v>1393.282082970054</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.775714797553</v>
+        <v>1771.61344165777</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.780299270387</v>
+        <v>2076.618026130604</v>
       </c>
       <c r="P17" t="n">
-        <v>2352.93719572644</v>
+        <v>2304.774922586657</v>
       </c>
       <c r="Q17" t="n">
-        <v>2447.369449412977</v>
+        <v>2399.207176273194</v>
       </c>
       <c r="R17" t="n">
         <v>2479.666378116423</v>
@@ -5549,10 +5549,10 @@
         <v>2331.386528352</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X17" t="n">
         <v>1768.035591787254</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>900.1177463212159</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C18" t="n">
-        <v>738.4140735621706</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D18" t="n">
-        <v>599.5754365523827</v>
+        <v>559.9814929856002</v>
       </c>
       <c r="E18" t="n">
-        <v>452.5474266092539</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F18" t="n">
-        <v>317.8536285591283</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G18" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J18" t="n">
         <v>109.8474740954346</v>
@@ -5607,37 +5607,37 @@
         <v>1701.458871459088</v>
       </c>
       <c r="O18" t="n">
-        <v>2019.798829055132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.894748330829</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q18" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="R18" t="n">
-        <v>2479.666378116423</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S18" t="n">
-        <v>2326.866891129164</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T18" t="n">
-        <v>2138.181787295149</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U18" t="n">
-        <v>1919.686994893459</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V18" t="n">
-        <v>1691.291372341793</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W18" t="n">
-        <v>1449.975503575103</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X18" t="n">
-        <v>1252.058515452898</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y18" t="n">
-        <v>1059.537189102477</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697188</v>
+        <v>87.10283444623026</v>
       </c>
       <c r="L19" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464898</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740915</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844335</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O19" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475196</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046131</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T19" t="n">
-        <v>484.131448273698</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162038</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280324</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988375</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X19" t="n">
         <v>109.7215829476192</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330231</v>
+        <v>60.41756019330228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187281</v>
+        <v>916.6170176187279</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782409</v>
+        <v>694.5624337782408</v>
       </c>
       <c r="F20" t="n">
         <v>453.1423791418172</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494112</v>
+        <v>209.7695286494111</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012648</v>
+        <v>49.67939030012644</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J20" t="n">
         <v>121.5918718351341</v>
@@ -5756,31 +5756,31 @@
         <v>361.7322438799169</v>
       </c>
       <c r="L20" t="n">
-        <v>709.6176169648631</v>
+        <v>741.9145456683088</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.856783217951</v>
+        <v>1135.153711921397</v>
       </c>
       <c r="N20" t="n">
-        <v>1481.188141905667</v>
+        <v>1682.778857055056</v>
       </c>
       <c r="O20" t="n">
-        <v>1786.192726378501</v>
+        <v>1987.783441527889</v>
       </c>
       <c r="P20" t="n">
-        <v>2183.643409280497</v>
+        <v>2385.234124429886</v>
       </c>
       <c r="Q20" t="n">
-        <v>2399.207176273194</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R20" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.5407285846</v>
       </c>
       <c r="U20" t="n">
         <v>2331.386528352001</v>
@@ -5789,13 +5789,13 @@
         <v>2167.138390301348</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212355</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.224872416498</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F21" t="n">
         <v>346.6419703022849</v>
@@ -5826,7 +5826,7 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J21" t="n">
         <v>109.8474740954346</v>
@@ -5847,34 +5847,34 @@
         <v>2093.658822243239</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.894748330829</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q21" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="R21" t="n">
-        <v>2479.666378116423</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S21" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="D22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="E22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="F22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="G22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H22" t="n">
-        <v>53.49864670158708</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49864670158708</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49864670158708</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="K22" t="n">
-        <v>87.10283444623049</v>
+        <v>83.19751530697187</v>
       </c>
       <c r="L22" t="n">
-        <v>187.70991384649</v>
+        <v>187.7099138464898</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740917</v>
+        <v>305.7034199740915</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236921</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193818</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P22" t="n">
-        <v>585.5578919475196</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475196</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475196</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046131</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T22" t="n">
-        <v>484.131448273698</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162038</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280324</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988375</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X22" t="n">
         <v>109.7215829476192</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330231</v>
+        <v>60.41756019330228</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1116.709846338098</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187281</v>
+        <v>916.6170176187277</v>
       </c>
       <c r="E23" t="n">
-        <v>694.562433778241</v>
+        <v>694.5624337782406</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418173</v>
+        <v>453.1423791418169</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494112</v>
+        <v>209.769528649411</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012648</v>
+        <v>49.67939030012644</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J23" t="n">
         <v>121.5918718351341</v>
@@ -5999,40 +5999,40 @@
         <v>1102.856783217951</v>
       </c>
       <c r="N23" t="n">
-        <v>1481.188141905667</v>
+        <v>1650.48192835161</v>
       </c>
       <c r="O23" t="n">
-        <v>1786.192726378501</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P23" t="n">
-        <v>2183.643409280497</v>
+        <v>2352.93719572644</v>
       </c>
       <c r="Q23" t="n">
-        <v>2399.207176273195</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.5407285846</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528352</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787253</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416497</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C24" t="n">
         <v>767.2024153053272</v>
@@ -6063,25 +6063,25 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J24" t="n">
-        <v>49.59332756232847</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K24" t="n">
-        <v>265.4780334675172</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>631.2998786376328</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.333232147859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.598878270981</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.798829055132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P24" t="n">
         <v>2321.894748330829</v>
@@ -6090,28 +6090,28 @@
         <v>2479.666378116423</v>
       </c>
       <c r="R24" t="n">
-        <v>2479.666378116423</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S24" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697188</v>
+        <v>87.10283444623026</v>
       </c>
       <c r="L25" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464898</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740915</v>
       </c>
       <c r="N25" t="n">
-        <v>420.2204425844335</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475196</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046131</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T25" t="n">
-        <v>484.131448273698</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162038</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280324</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988375</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X25" t="n">
         <v>109.7215829476192</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330231</v>
+        <v>60.41756019330228</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1690.312431518093</v>
+        <v>1744.242696779854</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.954597606667</v>
+        <v>1476.884862868427</v>
       </c>
       <c r="D26" t="n">
         <v>1218.636822851417</v>
       </c>
       <c r="E26" t="n">
-        <v>938.4270277132908</v>
+        <v>938.427027713291</v>
       </c>
       <c r="F26" t="n">
         <v>638.8517617792277</v>
@@ -6227,7 +6227,7 @@
         <v>245.1314844327526</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306618</v>
+        <v>597.567720330662</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
@@ -6239,7 +6239,7 @@
         <v>2053.911209915792</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6248,28 +6248,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341008</v>
+        <v>3041.853815341009</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T26" t="n">
-        <v>2859.417743213906</v>
+        <v>2859.417743213907</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683666</v>
+        <v>2719.108331683668</v>
       </c>
       <c r="V26" t="n">
-        <v>2496.704982335374</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W26" t="n">
         <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2248.745976948742</v>
+        <v>2023.208627448249</v>
       </c>
       <c r="Y26" t="n">
-        <v>1969.780046280346</v>
+        <v>1744.242696779854</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925.4372193487595</v>
+        <v>940.1498368088643</v>
       </c>
       <c r="C27" t="n">
-        <v>763.7335465897143</v>
+        <v>778.446164049819</v>
       </c>
       <c r="D27" t="n">
-        <v>624.8949095799263</v>
+        <v>639.6075270400311</v>
       </c>
       <c r="E27" t="n">
-        <v>477.8668996367975</v>
+        <v>492.5795170969022</v>
       </c>
       <c r="F27" t="n">
-        <v>343.1731015866719</v>
+        <v>357.8857190467766</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700611</v>
+        <v>229.1572190700612</v>
       </c>
       <c r="H27" t="n">
         <v>129.2193616167592</v>
@@ -6327,28 +6327,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.501260322693</v>
+        <v>2178.213877782798</v>
       </c>
       <c r="U27" t="n">
-        <v>1945.006467921003</v>
+        <v>1959.719085381108</v>
       </c>
       <c r="V27" t="n">
-        <v>1716.610845369337</v>
+        <v>1731.323462829442</v>
       </c>
       <c r="W27" t="n">
-        <v>1475.294976602647</v>
+        <v>1490.007594062752</v>
       </c>
       <c r="X27" t="n">
-        <v>1277.377988480441</v>
+        <v>1292.090605940546</v>
       </c>
       <c r="Y27" t="n">
-        <v>1084.85666213002</v>
+        <v>1099.569279590125</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901141</v>
+        <v>358.478573190114</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075608</v>
+        <v>303.4385284075609</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910899</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E28" t="n">
         <v>227.5094705081752</v>
@@ -6385,46 +6385,46 @@
         <v>114.2708406219772</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197474</v>
+        <v>260.1708922197473</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731336</v>
+        <v>473.073835473133</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538617</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565886</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q28" t="n">
         <v>1394.630684586277</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956422</v>
+        <v>1359.684827956421</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T28" t="n">
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321871</v>
+        <v>969.3336469321872</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463761</v>
+        <v>823.1742672463762</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195417</v>
       </c>
       <c r="X28" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706839</v>
       </c>
       <c r="Y28" t="n">
         <v>427.4580171187275</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1442.714634989808</v>
+        <v>1422.858215795354</v>
       </c>
       <c r="C29" t="n">
-        <v>1175.356801078382</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D29" t="n">
-        <v>917.1087610613722</v>
+        <v>897.2523418669173</v>
       </c>
       <c r="E29" t="n">
-        <v>636.8989659232454</v>
+        <v>617.0425467287905</v>
       </c>
       <c r="F29" t="n">
-        <v>337.3236999891822</v>
+        <v>617.0425467287905</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3236999891822</v>
+        <v>315.5144849387449</v>
       </c>
       <c r="H29" t="n">
         <v>119.0783503422578</v>
@@ -6461,10 +6461,10 @@
         <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327526</v>
+        <v>245.1314844327525</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306623</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6473,10 +6473,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P29" t="n">
         <v>2811.664418550932</v>
@@ -6485,13 +6485,13 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341008</v>
+        <v>3041.853815341009</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213906</v>
+        <v>2859.417743213907</v>
       </c>
       <c r="U29" t="n">
         <v>2719.108331683667</v>
@@ -6503,10 +6503,10 @@
         <v>2248.745976948742</v>
       </c>
       <c r="X29" t="n">
-        <v>1981.291761226001</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y29" t="n">
-        <v>1722.182249752061</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C30" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D30" t="n">
         <v>639.6075270400311</v>
@@ -6531,7 +6531,7 @@
         <v>357.8857190467766</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700611</v>
+        <v>229.1572190700612</v>
       </c>
       <c r="H30" t="n">
         <v>129.2193616167592</v>
@@ -6564,28 +6564,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W30" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901137</v>
       </c>
       <c r="C31" t="n">
         <v>303.4385284075607</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910898</v>
       </c>
       <c r="E31" t="n">
         <v>227.5094705081751</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
         <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837526</v>
+        <v>90.46419594837528</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219772</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197476</v>
+        <v>260.1708922197475</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731336</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538618</v>
       </c>
       <c r="N31" t="n">
         <v>934.0814110565889</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321872</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463762</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195417</v>
       </c>
       <c r="X31" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706838</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.536318111711</v>
+        <v>1542.53631811171</v>
       </c>
       <c r="C32" t="n">
         <v>1303.684062512361</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807428</v>
+        <v>1073.941600807427</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813781</v>
+        <v>822.2373839813779</v>
       </c>
       <c r="F32" t="n">
         <v>551.1676963593918</v>
       </c>
       <c r="G32" t="n">
-        <v>278.145212881423</v>
+        <v>278.1452128814233</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657567</v>
+        <v>88.40544154657547</v>
       </c>
       <c r="I32" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9024712528139</v>
+        <v>193.726784136745</v>
       </c>
       <c r="K32" t="n">
-        <v>651.2770244543899</v>
+        <v>433.8671561815278</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.396578696129</v>
+        <v>921.9867104232674</v>
       </c>
       <c r="M32" t="n">
-        <v>1595.694238989945</v>
+        <v>1455.460057833149</v>
       </c>
       <c r="N32" t="n">
-        <v>1974.025597677661</v>
+        <v>1974.025597677658</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.030182150495</v>
+        <v>2419.264363307285</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763341</v>
+        <v>2647.421259763339</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606671</v>
+        <v>2882.087694606669</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.48729116075</v>
+        <v>2933.487291160749</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858947</v>
+        <v>2889.339818858946</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657802</v>
+        <v>2808.062375657801</v>
       </c>
       <c r="U32" t="n">
         <v>2696.258542439638</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403424</v>
+        <v>2502.360771403423</v>
       </c>
       <c r="W32" t="n">
         <v>2282.907344328868</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918205</v>
+        <v>2043.958706918204</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561887</v>
+        <v>1793.498354561886</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>127.052031133154</v>
       </c>
       <c r="I33" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563211</v>
@@ -6783,7 +6783,7 @@
         <v>348.4144449165098</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866254</v>
+        <v>714.2362900866253</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219704</v>
+        <v>156.7721945219692</v>
       </c>
       <c r="C34" t="n">
-        <v>130.237728051494</v>
+        <v>130.237728051493</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379471001</v>
+        <v>120.2473379470992</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762622</v>
+        <v>111.3198267762615</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698827</v>
+        <v>101.9206748698821</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557601</v>
+        <v>76.08242930557563</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269316</v>
+        <v>59.79128715269295</v>
       </c>
       <c r="I34" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="J34" t="n">
-        <v>140.0418274420389</v>
+        <v>58.66974582321497</v>
       </c>
       <c r="K34" t="n">
-        <v>313.8801963434756</v>
+        <v>195.2211295480819</v>
       </c>
       <c r="L34" t="n">
-        <v>414.4872757437352</v>
+        <v>295.8282089483415</v>
       </c>
       <c r="M34" t="n">
-        <v>532.4807818713368</v>
+        <v>413.8217150759432</v>
       </c>
       <c r="N34" t="n">
-        <v>650.9031236209372</v>
+        <v>532.2440568255436</v>
       </c>
       <c r="O34" t="n">
-        <v>749.3667701166269</v>
+        <v>770.9418844780266</v>
       </c>
       <c r="P34" t="n">
-        <v>833.9103682061675</v>
+        <v>833.9103682061644</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094414</v>
+        <v>936.3741011094385</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916629</v>
+        <v>929.9338227916602</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631938</v>
+        <v>859.3055632631913</v>
       </c>
       <c r="T34" t="n">
-        <v>769.208113146716</v>
+        <v>769.2081131467136</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036591</v>
+        <v>625.099376703657</v>
       </c>
       <c r="V34" t="n">
-        <v>507.445575329925</v>
+        <v>507.4455753299231</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151675</v>
+        <v>364.3706769151657</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783865</v>
+        <v>276.1997158783849</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385069</v>
+        <v>197.2460601385055</v>
       </c>
     </row>
     <row r="35">
@@ -6914,43 +6914,43 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L35" t="n">
-        <v>1155.86945854806</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M35" t="n">
-        <v>1549.108624801147</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1927.439983488863</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
         <v>2460.60146441775</v>
@@ -6962,13 +6962,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>79.39795846875474</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>79.39795846875474</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>78.28534634413701</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I37" t="n">
-        <v>78.28534634413701</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="J37" t="n">
-        <v>78.28534634413701</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="K37" t="n">
-        <v>111.8895340887804</v>
+        <v>116.1058776941454</v>
       </c>
       <c r="L37" t="n">
-        <v>212.4966134890399</v>
+        <v>216.7129570944049</v>
       </c>
       <c r="M37" t="n">
-        <v>330.4901196166417</v>
+        <v>334.7064632220066</v>
       </c>
       <c r="N37" t="n">
-        <v>448.912461366242</v>
+        <v>453.128804971607</v>
       </c>
       <c r="O37" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479469</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>403.4153465927297</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>751.3007196776759</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N38" t="n">
         <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,13 +7275,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
         <v>1949.982683436373</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7342,7 +7342,7 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
         <v>566.4101965415339</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1377.643453746171</v>
+        <v>1402.683981160803</v>
       </c>
       <c r="C41" t="n">
-        <v>1157.688807502504</v>
+        <v>1182.729334917136</v>
       </c>
       <c r="D41" t="n">
-        <v>946.8439551532538</v>
+        <v>971.8844825678856</v>
       </c>
       <c r="E41" t="n">
-        <v>714.0373476828865</v>
+        <v>739.0778750975184</v>
       </c>
       <c r="F41" t="n">
-        <v>461.8652694165827</v>
+        <v>486.9057968312146</v>
       </c>
       <c r="G41" t="n">
-        <v>207.7403952942967</v>
+        <v>232.7809227089286</v>
       </c>
       <c r="H41" t="n">
-        <v>61.93876072976381</v>
+        <v>61.93876072976378</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
@@ -7415,22 +7415,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>869.8806918509182</v>
       </c>
       <c r="M41" t="n">
-        <v>1161.676025144968</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
-        <v>1540.007383832684</v>
+        <v>1800.20694487802</v>
       </c>
       <c r="O41" t="n">
-        <v>2003.767696391815</v>
+        <v>2105.211529350854</v>
       </c>
       <c r="P41" t="n">
-        <v>2231.924592847869</v>
+        <v>2333.368425806907</v>
       </c>
       <c r="Q41" t="n">
-        <v>2485.112574620703</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7439,22 +7439,22 @@
         <v>2529.783855158167</v>
       </c>
       <c r="T41" t="n">
-        <v>2529.783855158167</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2436.877631295687</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V41" t="n">
-        <v>2261.877469615154</v>
+        <v>2286.917997029786</v>
       </c>
       <c r="W41" t="n">
-        <v>2061.321651896281</v>
+        <v>2086.362179310913</v>
       </c>
       <c r="X41" t="n">
-        <v>1841.2706238413</v>
+        <v>1866.311151255932</v>
       </c>
       <c r="Y41" t="n">
-        <v>1609.707880840664</v>
+        <v>1634.748408255296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H42" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.6781676855036</v>
+        <v>65.67816768550354</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057070981</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057070981</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057070981</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057070981</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>53.6552728675498</v>
       </c>
       <c r="I43" t="n">
-        <v>55.70604731547431</v>
+        <v>53.6552728675498</v>
       </c>
       <c r="J43" t="n">
-        <v>155.5996758638028</v>
+        <v>153.5489014158783</v>
       </c>
       <c r="K43" t="n">
-        <v>189.2038636084462</v>
+        <v>187.1530891605217</v>
       </c>
       <c r="L43" t="n">
-        <v>289.8109430087057</v>
+        <v>287.7601685607812</v>
       </c>
       <c r="M43" t="n">
-        <v>407.8044491363074</v>
+        <v>405.7536746883829</v>
       </c>
       <c r="N43" t="n">
-        <v>526.2267908859078</v>
+        <v>524.1760164379833</v>
       </c>
       <c r="O43" t="n">
-        <v>624.6904373815975</v>
+        <v>622.639662933673</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097353</v>
+        <v>687.6589211097348</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097353</v>
+        <v>687.6589211097348</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097353</v>
+        <v>687.6589211097348</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369487</v>
+        <v>635.9282709369484</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761534</v>
+        <v>564.7284301761532</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887793</v>
+        <v>439.517303088779</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707278</v>
+        <v>340.7611110707276</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116528</v>
+        <v>216.5838220116527</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305545</v>
+        <v>147.3104703305544</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635749</v>
+        <v>87.25442394635741</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1391.845894793124</v>
+        <v>1402.683981160802</v>
       </c>
       <c r="C44" t="n">
-        <v>1171.891248549458</v>
+        <v>1182.729334917135</v>
       </c>
       <c r="D44" t="n">
-        <v>961.0463962002076</v>
+        <v>971.8844825678856</v>
       </c>
       <c r="E44" t="n">
-        <v>728.2397887298404</v>
+        <v>739.0778750975184</v>
       </c>
       <c r="F44" t="n">
-        <v>476.0677104635366</v>
+        <v>486.9057968312146</v>
       </c>
       <c r="G44" t="n">
-        <v>221.9428363412505</v>
+        <v>232.7809227089286</v>
       </c>
       <c r="H44" t="n">
-        <v>51.10067436208573</v>
+        <v>61.93876072976378</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>281.8549467211892</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>680.7510468522697</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.948315064475</v>
+        <v>768.4368588918794</v>
       </c>
       <c r="M44" t="n">
-        <v>1479.187481317563</v>
+        <v>1161.676025144967</v>
       </c>
       <c r="N44" t="n">
-        <v>1857.518840005279</v>
+        <v>1698.763111918981</v>
       </c>
       <c r="O44" t="n">
-        <v>2162.523424478113</v>
+        <v>2003.767696391815</v>
       </c>
       <c r="P44" t="n">
-        <v>2390.680320934166</v>
+        <v>2231.924592847868</v>
       </c>
       <c r="Q44" t="n">
         <v>2485.112574620703</v>
@@ -7673,25 +7673,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2529.783855158167</v>
       </c>
       <c r="T44" t="n">
-        <v>2543.98629620512</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U44" t="n">
-        <v>2451.08007234264</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V44" t="n">
-        <v>2276.079910662107</v>
+        <v>2286.917997029786</v>
       </c>
       <c r="W44" t="n">
-        <v>2075.524092943234</v>
+        <v>2086.362179310912</v>
       </c>
       <c r="X44" t="n">
-        <v>1855.473064888254</v>
+        <v>1866.311151255932</v>
       </c>
       <c r="Y44" t="n">
-        <v>1623.910321887618</v>
+        <v>1634.748408255295</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550352</v>
+        <v>65.67816768550354</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057070977</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057070977</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057070977</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057070977</v>
+        <v>58.04131057070978</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>407.804449136307</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>526.2267908859073</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>624.690437381597</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>687.6589211097348</v>
       </c>
       <c r="Q46" t="n">
         <v>687.6589211097348</v>
@@ -7991,7 +7991,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>387.7683228166665</v>
+        <v>387.7683228166646</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8064,16 +8064,16 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>436.6431973148169</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876341</v>
+        <v>604.9267112876337</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>245.2282136717341</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8219,10 +8219,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>435.6876660906831</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>477.0956807157779</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>248.9494412187385</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>432.6464778877416</v>
+        <v>604.9267112876337</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,25 +8529,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>290.729511147374</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>522.1898869410242</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>548.5390329212591</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>339.395545506558</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.4944203312434</v>
+        <v>198.4944203312429</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9255,13 +9255,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>437.4149613343882</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312429</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>339.395545506558</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312429</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>330.0615286668573</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>339.3955455065575</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>57.96468727041121</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.57276231508271</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>42.97694301698006</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>14.69954188680194</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>53.39096260914266</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>41.49769756002486</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24689,13 +24689,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>21.59112289993279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.65785500251101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>24.7901221404856</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700828</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>86.5461576474936</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400126</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665889</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>50.819087826833</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>86.54615764749286</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649510.4681228442</v>
+        <v>649510.4681228444</v>
       </c>
     </row>
     <row r="12">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>671671.0529324096</v>
+        <v>671671.0529324092</v>
       </c>
       <c r="C2" t="n">
+        <v>671671.052932409</v>
+      </c>
+      <c r="D2" t="n">
         <v>671671.0529324091</v>
-      </c>
-      <c r="D2" t="n">
-        <v>671671.0529324096</v>
       </c>
       <c r="E2" t="n">
         <v>611520.9724992319</v>
       </c>
       <c r="F2" t="n">
-        <v>611520.9724992318</v>
+        <v>611520.9724992316</v>
       </c>
       <c r="G2" t="n">
-        <v>671671.0529324095</v>
+        <v>671671.0529324096</v>
       </c>
       <c r="H2" t="n">
+        <v>671671.0529324096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>671671.0529324096</v>
+      </c>
+      <c r="J2" t="n">
+        <v>649510.4681228437</v>
+      </c>
+      <c r="K2" t="n">
+        <v>649510.4681228441</v>
+      </c>
+      <c r="L2" t="n">
         <v>671671.0529324092</v>
       </c>
-      <c r="I2" t="n">
-        <v>671671.0529324092</v>
-      </c>
-      <c r="J2" t="n">
-        <v>649510.4681228441</v>
-      </c>
-      <c r="K2" t="n">
-        <v>649510.4681228439</v>
-      </c>
-      <c r="L2" t="n">
-        <v>671671.0529324091</v>
-      </c>
       <c r="M2" t="n">
-        <v>671671.0529324096</v>
+        <v>671671.0529324098</v>
       </c>
       <c r="N2" t="n">
-        <v>671671.0529324098</v>
+        <v>671671.0529324099</v>
       </c>
       <c r="O2" t="n">
         <v>665643.1130522618</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.1560468122</v>
+        <v>166962.156046812</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528404</v>
+        <v>8415.473351528546</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405801</v>
+        <v>118993.61014058</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773054</v>
+        <v>46058.92734773056</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.515593756</v>
+        <v>211812.5155937559</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089548</v>
+        <v>68635.34537089562</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423365</v>
+        <v>19582.70168423351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430342</v>
+        <v>40069.40998430343</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193077.2086614256</v>
+        <v>193077.2086614257</v>
       </c>
       <c r="C4" t="n">
-        <v>193077.2086614256</v>
+        <v>193077.2086614257</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332932</v>
@@ -26433,19 +26433,19 @@
         <v>177298.4012420843</v>
       </c>
       <c r="H4" t="n">
-        <v>177298.4012420843</v>
+        <v>177298.4012420844</v>
       </c>
       <c r="I4" t="n">
         <v>177298.4012420843</v>
       </c>
       <c r="J4" t="n">
-        <v>161896.3971701087</v>
+        <v>161896.3971701088</v>
       </c>
       <c r="K4" t="n">
         <v>161896.3971701087</v>
       </c>
       <c r="L4" t="n">
-        <v>176099.8977090712</v>
+        <v>176099.8977090711</v>
       </c>
       <c r="M4" t="n">
         <v>175623.1205402357</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937146</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937146</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26491,16 +26491,16 @@
         <v>52067.04948547468</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729294</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729293</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823981</v>
+        <v>56497.4385182398</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>52317.76029749523</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.76029749522</v>
+        <v>52317.76029749523</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247712.8247548003</v>
+        <v>247712.8247548001</v>
       </c>
       <c r="C6" t="n">
-        <v>414674.980801612</v>
+        <v>414674.9808016118</v>
       </c>
       <c r="D6" t="n">
-        <v>411913.7856106766</v>
+        <v>411913.785610676</v>
       </c>
       <c r="E6" t="n">
-        <v>306989.5879020743</v>
+        <v>306817.7305294081</v>
       </c>
       <c r="F6" t="n">
-        <v>425983.1980426543</v>
+        <v>425811.3406699878</v>
       </c>
       <c r="G6" t="n">
         <v>396246.6748571199</v>
       </c>
       <c r="H6" t="n">
-        <v>442305.6022048502</v>
+        <v>442305.6022048505</v>
       </c>
       <c r="I6" t="n">
-        <v>442305.6022048502</v>
+        <v>442305.6022048505</v>
       </c>
       <c r="J6" t="n">
-        <v>220029.4167816864</v>
+        <v>219966.1008250872</v>
       </c>
       <c r="K6" t="n">
-        <v>431841.9323754422</v>
+        <v>431778.6164188437</v>
       </c>
       <c r="L6" t="n">
         <v>370438.3713342026</v>
       </c>
       <c r="M6" t="n">
-        <v>423662.4138152939</v>
+        <v>423662.4138152943</v>
       </c>
       <c r="N6" t="n">
-        <v>443245.1154995278</v>
+        <v>443245.1154995279</v>
       </c>
       <c r="O6" t="n">
-        <v>401546.7120804571</v>
+        <v>401529.4893950852</v>
       </c>
       <c r="P6" t="n">
-        <v>441616.1220647606</v>
+        <v>441598.8993793887</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="J4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352522</v>
       </c>
       <c r="K4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352522</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901875</v>
+        <v>733.3718227901871</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466317</v>
+        <v>57.5736591846632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354556</v>
+        <v>55.85650632354555</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361935</v>
+        <v>85.79418171361952</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529205</v>
+        <v>24.47837710529188</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037928</v>
+        <v>50.08676248037929</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506456</v>
+        <v>27.09163104506501</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411553</v>
+        <v>94.61339326411542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466317</v>
+        <v>57.5736591846632</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354556</v>
+        <v>55.85650632354555</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506456</v>
+        <v>27.09163104506501</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411553</v>
+        <v>94.61339326411542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>41.63113518339111</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>39.63751553178903</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>95.04510929489201</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8217962294033</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>124.9310703838087</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>9.843482091223592</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27616,22 +27616,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>309.6910830018405</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>194.7700523935795</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>29.39671168210515</v>
+        <v>162.7435717517314</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.50967559889287</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,19 +27780,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>91.52075517051688</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27822,7 +27822,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>301.6407289842107</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>107.3499351807985</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27907,19 +27907,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>102.5457264772578</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.33413416886204</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>8.683331745323954</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>14.6841360714634</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28114,10 +28114,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L11" t="n">
-        <v>10.64205129852496</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,16 +28126,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>34.3403131676281</v>
       </c>
       <c r="P11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>19.98842208488948</v>
+        <v>87.68688454172955</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28354,7 +28354,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
-        <v>10.64205129852496</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>10.64205129852479</v>
       </c>
       <c r="R14" t="n">
         <v>113.4301655082087</v>
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>87.6868845417291</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>87.68688454172946</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28585,31 +28585,31 @@
         <v>171.0038246928719</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>122.3550639456159</v>
+      </c>
+      <c r="M17" t="n">
         <v>171.0038246928719</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>171.0038246928719</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>122.3550639456165</v>
       </c>
       <c r="S17" t="n">
         <v>171.0038246928719</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>19.98842208488988</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>28.50045832572499</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>146.70578076068</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>151.9713303790975</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>171.0038246928719</v>
@@ -28828,13 +28828,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>32.62316030651084</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,10 +28843,10 @@
         <v>171.0038246928719</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.3550639456165</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>171.0038246928719</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>87.68688454172963</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.50045832572529</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>161.7236855758508</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.944766807331717</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="P23" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.3550639456169</v>
+        <v>32.62316030651084</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>171.0038246928719</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>87.68688454172961</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>28.50045832572529</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>154.9006152318124</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790975</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>171.0038246928719</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082089</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14.5654912855037</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371649</v>
+        <v>63.6954485259842</v>
       </c>
       <c r="K32" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="M32" t="n">
-        <v>63.69544852598756</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="P32" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="J34" t="n">
-        <v>141.6506880371649</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6506880371649</v>
+        <v>103.9870666466905</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="P34" t="n">
-        <v>21.79304480949783</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371651</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L35" t="n">
-        <v>116.9787331327014</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,10 +30147,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>164.4841484536139</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30159,10 +30159,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>14.96741926690626</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>40.58157162934904</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30253,19 +30253,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N38" t="n">
-        <v>40.58157162934947</v>
-      </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30487,25 +30487,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>160.3593212992907</v>
       </c>
       <c r="M41" t="n">
-        <v>57.89080315884837</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>160.3593212992907</v>
       </c>
       <c r="O41" t="n">
-        <v>160.3593212992907</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.3593212992907</v>
+        <v>128.5182208190332</v>
       </c>
       <c r="R41" t="n">
-        <v>160.3593212992907</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>160.3593212992907</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30633,10 +30633,10 @@
         <v>160.3593212992907</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>160.3593212992907</v>
       </c>
       <c r="I43" t="n">
-        <v>147.4129058254579</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>160.3593212992907</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.071489341337426</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30718,28 +30718,28 @@
         <v>160.3593212992907</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>57.89080315884752</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>160.3593212992907</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>160.3593212992907</v>
-      </c>
-      <c r="L44" t="n">
-        <v>57.89080315884786</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>160.3593212992907</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>105.5545469714309</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.7065149042787</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34711,7 +34711,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>200.813526036546</v>
+        <v>200.8135260365441</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>321.1592947531771</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>136.3740076475907</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34939,10 +34939,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>244.1274539275685</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>289.9393662186188</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>136.3740076475907</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>325.9313368200333</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>178.7333419807073</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>406.7059843793842</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35410,10 +35410,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L11" t="n">
-        <v>362.0414180509959</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>342.4257520290765</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>441.8238918535508</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>230.5413394824147</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35650,7 +35650,7 @@
         <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
-        <v>362.0414180509959</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
@@ -35662,10 +35662,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>106.0281661334107</v>
       </c>
       <c r="R14" t="n">
         <v>23.69826186910356</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.75922888635087</v>
+        <v>84.75922888635041</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7296269886352</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>413.5698570613393</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>473.7544306980868</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.2151037363951</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>32.62316030651127</v>
+        <v>81.27192105376676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>321.5555127232771</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635041</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.944766807331705</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.944766807331928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>384.0225270589818</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562212</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.4653362646428</v>
+        <v>401.4653362646429</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.7411787805023</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>81.27192105376673</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>230.5413394824147</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635041</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36270,7 +36270,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.944766807331928</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>101.6233125255146</v>
+        <v>105.5680793328464</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562212</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543204</v>
       </c>
       <c r="P23" t="n">
-        <v>401.4653362646428</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.7411787805028</v>
+        <v>128.0092751413967</v>
       </c>
       <c r="R23" t="n">
-        <v>81.27192105376673</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>218.0653595001906</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824142</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36501,7 +36501,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.944766807331705</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807331928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696571</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910368</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329282</v>
+        <v>136.4212508217475</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056323</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>493.0500547896359</v>
+        <v>493.050054789636</v>
       </c>
       <c r="M32" t="n">
-        <v>460.9067275695107</v>
+        <v>538.8619670806883</v>
       </c>
       <c r="N32" t="n">
-        <v>382.1528875633492</v>
+        <v>523.8035756005143</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>449.7361268986135</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1121996089358</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720507</v>
+        <v>237.0368028720509</v>
       </c>
       <c r="R32" t="n">
-        <v>51.9187843980597</v>
+        <v>51.91878439805987</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.19402183719589</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.5943120216532</v>
+        <v>137.9306906311787</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.10891682069</v>
       </c>
       <c r="P34" t="n">
-        <v>85.39757382781883</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.498720104317</v>
+        <v>103.4987201043172</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>468.3780998851723</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,10 +37318,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37400,7 +37400,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q36" t="n">
         <v>159.3652826117113</v>
@@ -37443,10 +37443,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>13.99522435731956</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45822878352493</v>
+        <v>114.4256480504312</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251123</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37549,19 +37549,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>422.7344591926987</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37710,10 +37710,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37783,25 +37783,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>511.7586880517616</v>
       </c>
       <c r="M41" t="n">
-        <v>455.1020822023715</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>542.5122088626399</v>
       </c>
       <c r="O41" t="n">
-        <v>468.4447601607391</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.7454361341765</v>
+        <v>223.9043356539191</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018547</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.580402530771778</v>
       </c>
       <c r="I43" t="n">
-        <v>4.651891872109664</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>100.9026550993217</v>
@@ -37953,7 +37953,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>63.604529018321</v>
+        <v>65.67601835965843</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.085123595054</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>402.9253536677581</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>409.2901699113188</v>
+        <v>409.2901699113185</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>542.5122088626399</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,7 +38035,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>255.7454361341765</v>
       </c>
       <c r="R44" t="n">
         <v>70.6274176601855</v>
@@ -38111,7 +38111,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q45" t="n">
         <v>159.3652826117113</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>224.7399066962811</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.5545469714308</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
